--- a/Cheap 2009.xlsx
+++ b/Cheap 2009.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Onasander\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Onasander\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAB67276-6034-4AC4-8657-1023AAEB55DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Asset Name</t>
   </si>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -222,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -242,6 +243,9 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -562,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,16 +621,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>8</v>
@@ -921,6 +925,9 @@
       </c>
       <c r="G23" s="2">
         <v>730</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
